--- a/exposan/bwaise/results/MorrisB.xlsx
+++ b/exposan/bwaise/results/MorrisB.xlsx
@@ -812,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.5319438882841528</v>
+        <v>-0.5319438882841525</v>
       </c>
       <c r="C2">
-        <v>0.5319438882841528</v>
+        <v>0.5319438882841525</v>
       </c>
       <c r="D2">
         <v>0.3653389541724468</v>
       </c>
       <c r="E2">
-        <v>0.2302211183484997</v>
+        <v>0.2302211183484998</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -829,16 +829,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.1076792693594548</v>
+        <v>-0.1076792693594551</v>
       </c>
       <c r="C3">
-        <v>0.1076792693594548</v>
+        <v>0.1076792693594551</v>
       </c>
       <c r="D3">
-        <v>0.04879741904797075</v>
+        <v>0.04879741904797093</v>
       </c>
       <c r="E3">
-        <v>0.03183174352824564</v>
+        <v>0.03183174352824574</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -846,16 +846,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.02336524606668069</v>
+        <v>-0.02336524606668062</v>
       </c>
       <c r="C4">
-        <v>0.03545963784787813</v>
+        <v>0.03545963784787807</v>
       </c>
       <c r="D4">
-        <v>0.03238876051172078</v>
+        <v>0.03238876051172072</v>
       </c>
       <c r="E4">
-        <v>0.0101262491569421</v>
+        <v>0.01012624915694207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -863,16 +863,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.106217855745108</v>
+        <v>-0.1062178557451072</v>
       </c>
       <c r="C5">
-        <v>0.106217855745108</v>
+        <v>0.1062178557451072</v>
       </c>
       <c r="D5">
-        <v>0.08540139177153107</v>
+        <v>0.0854013917715314</v>
       </c>
       <c r="E5">
-        <v>0.04977526570490814</v>
+        <v>0.04977526570490823</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -886,7 +886,7 @@
         <v>0.6035325108181547</v>
       </c>
       <c r="D6">
-        <v>0.3163231777436987</v>
+        <v>0.3163231777436986</v>
       </c>
       <c r="E6">
         <v>0.1808381126108481</v>
@@ -897,16 +897,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.1070575377107092</v>
+        <v>-0.1070575377107101</v>
       </c>
       <c r="C7">
-        <v>0.1150176146893928</v>
+        <v>0.1150176146893916</v>
       </c>
       <c r="D7">
-        <v>0.09455889996785317</v>
+        <v>0.09455889996785152</v>
       </c>
       <c r="E7">
-        <v>0.05199586969632464</v>
+        <v>0.05199586969632547</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -914,16 +914,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.05790879774084946</v>
+        <v>-0.05790879774084953</v>
       </c>
       <c r="C8">
-        <v>0.06471119080887139</v>
+        <v>0.06471119080887146</v>
       </c>
       <c r="D8">
-        <v>0.05202580333083543</v>
+        <v>0.05202580333083553</v>
       </c>
       <c r="E8">
-        <v>0.02693919629877329</v>
+        <v>0.02693919629877331</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -937,10 +937,10 @@
         <v>0.004462886888135426</v>
       </c>
       <c r="D9">
-        <v>0.005222116439987101</v>
+        <v>0.005222116439987236</v>
       </c>
       <c r="E9">
-        <v>0.002881264198486666</v>
+        <v>0.002881264198486935</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -948,16 +948,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.003850321751933122</v>
+        <v>-0.003850321751932223</v>
       </c>
       <c r="C10">
-        <v>0.003850321751933122</v>
+        <v>0.003850321751932223</v>
       </c>
       <c r="D10">
-        <v>0.002892035727244131</v>
+        <v>0.002892035727244547</v>
       </c>
       <c r="E10">
-        <v>0.001800176968042616</v>
+        <v>0.001800176968042722</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -965,16 +965,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.08855930578619906</v>
+        <v>-0.08855930578619983</v>
       </c>
       <c r="C11">
-        <v>0.08855930578619906</v>
+        <v>0.08855930578619983</v>
       </c>
       <c r="D11">
-        <v>0.03640409924084557</v>
+        <v>0.0364040992408453</v>
       </c>
       <c r="E11">
-        <v>0.02154883348324334</v>
+        <v>0.02154883348324311</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -982,16 +982,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-2.815932870791756</v>
+        <v>-2.815932870791755</v>
       </c>
       <c r="C12">
-        <v>2.815932870791756</v>
+        <v>2.815932870791755</v>
       </c>
       <c r="D12">
         <v>1.020725272948936</v>
       </c>
       <c r="E12">
-        <v>0.581452173112247</v>
+        <v>0.5814521731122466</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -999,16 +999,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.002573855078325415</v>
+        <v>-0.002573855078325549</v>
       </c>
       <c r="C13">
-        <v>0.006422544468436708</v>
+        <v>0.006422544468436575</v>
       </c>
       <c r="D13">
-        <v>0.01437358584736862</v>
+        <v>0.01437358584736856</v>
       </c>
       <c r="E13">
-        <v>0.006485808528778799</v>
+        <v>0.006485808528778812</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1016,16 +1016,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.02340195678676378</v>
+        <v>0.02340195678676284</v>
       </c>
       <c r="C14">
-        <v>0.03076648522852241</v>
+        <v>0.03076648522852334</v>
       </c>
       <c r="D14">
-        <v>0.08770841459937542</v>
+        <v>0.08770841459937569</v>
       </c>
       <c r="E14">
-        <v>0.05080339775459827</v>
+        <v>0.05080339775459802</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1033,16 +1033,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.006482960618782318</v>
+        <v>0.006482960618782552</v>
       </c>
       <c r="C15">
-        <v>0.01011183175530569</v>
+        <v>0.01011183175530619</v>
       </c>
       <c r="D15">
-        <v>0.02747444915587014</v>
+        <v>0.02747444915587187</v>
       </c>
       <c r="E15">
-        <v>0.0144074467164583</v>
+        <v>0.0144074467164593</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1050,16 +1050,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-0.00518816360767862</v>
+        <v>-0.005188163607678753</v>
       </c>
       <c r="C16">
-        <v>0.005188163607678886</v>
+        <v>0.005188163607679019</v>
       </c>
       <c r="D16">
-        <v>0.01640641387386115</v>
+        <v>0.01640641387386157</v>
       </c>
       <c r="E16">
-        <v>0.00936440895696697</v>
+        <v>0.009364408956967213</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1067,16 +1067,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.001501396950852962</v>
+        <v>0.001501396950852396</v>
       </c>
       <c r="C17">
-        <v>0.00190357298135484</v>
+        <v>0.001903572981354274</v>
       </c>
       <c r="D17">
-        <v>0.002633546359531295</v>
+        <v>0.002633546359531086</v>
       </c>
       <c r="E17">
-        <v>0.001373148615670063</v>
+        <v>0.001373148615669952</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1084,16 +1084,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.0006166185828768933</v>
+        <v>0.0006166185828779591</v>
       </c>
       <c r="C18">
-        <v>0.0007166080183816037</v>
+        <v>0.0007166080183826695</v>
       </c>
       <c r="D18">
-        <v>0.001187133935405521</v>
+        <v>0.001187133935405487</v>
       </c>
       <c r="E18">
-        <v>0.0007007239290245049</v>
+        <v>0.0007007239290244944</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1101,16 +1101,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-0.003962559119860654</v>
+        <v>-0.003962559119861786</v>
       </c>
       <c r="C19">
-        <v>0.003962559119860654</v>
+        <v>0.003962559119861786</v>
       </c>
       <c r="D19">
-        <v>0.01110515200473078</v>
+        <v>0.0111051520047305</v>
       </c>
       <c r="E19">
-        <v>0.006800541627681444</v>
+        <v>0.006800541627680875</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>-0.007904609462937872</v>
+        <v>-0.007904609462935742</v>
       </c>
       <c r="C21">
-        <v>0.008658809162892323</v>
+        <v>0.008658809162894455</v>
       </c>
       <c r="D21">
-        <v>0.02632307717164574</v>
+        <v>0.02632307717164651</v>
       </c>
       <c r="E21">
-        <v>0.0172011520754492</v>
+        <v>0.01720115207544881</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.01420121304938266</v>
+        <v>0.01420121304938319</v>
       </c>
       <c r="C22">
-        <v>0.01420121304938266</v>
+        <v>0.01420121304938319</v>
       </c>
       <c r="D22">
-        <v>0.04460445417862816</v>
+        <v>0.04460445417862798</v>
       </c>
       <c r="E22">
-        <v>0.02497140878808348</v>
+        <v>0.02497140878808338</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.00199102999866827</v>
+        <v>0.001991029998669935</v>
       </c>
       <c r="C23">
-        <v>0.007178157321073964</v>
+        <v>0.007178157321072432</v>
       </c>
       <c r="D23">
-        <v>0.01743156917347107</v>
+        <v>0.01743156917347105</v>
       </c>
       <c r="E23">
-        <v>0.008563313485962556</v>
+        <v>0.008563313485963071</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.03082428486002316</v>
+        <v>0.03082428486002413</v>
       </c>
       <c r="C25">
-        <v>0.03082668573317119</v>
+        <v>0.03082668573316989</v>
       </c>
       <c r="D25">
-        <v>0.09035461344124371</v>
+        <v>0.09035461344124274</v>
       </c>
       <c r="E25">
-        <v>0.05398128183675582</v>
+        <v>0.05398128183675549</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.02186342543469342</v>
+        <v>0.02186342543469395</v>
       </c>
       <c r="C26">
-        <v>0.02188450035382206</v>
+        <v>0.02188450035382259</v>
       </c>
       <c r="D26">
-        <v>0.04642847226154205</v>
+        <v>0.04642847226154301</v>
       </c>
       <c r="E26">
-        <v>0.02699588491077743</v>
+        <v>0.0269958849107779</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.009052284937670374</v>
+        <v>0.009052284937670107</v>
       </c>
       <c r="C29">
-        <v>0.009052284937670374</v>
+        <v>0.009052284937670107</v>
       </c>
       <c r="D29">
-        <v>0.005576373192364466</v>
+        <v>0.005576373192364713</v>
       </c>
       <c r="E29">
-        <v>0.003451785797823804</v>
+        <v>0.003451785797823883</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.0440142495218805</v>
+        <v>0.04401424952188073</v>
       </c>
       <c r="C30">
-        <v>0.04877023622163505</v>
+        <v>0.04877023622163527</v>
       </c>
       <c r="D30">
-        <v>0.1013029273551772</v>
+        <v>0.1013029273551768</v>
       </c>
       <c r="E30">
-        <v>0.0542892812501197</v>
+        <v>0.05428928125011939</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.5934336071287865</v>
+        <v>0.5934336071287851</v>
       </c>
       <c r="C33">
-        <v>0.5934336071287865</v>
+        <v>0.5934336071287851</v>
       </c>
       <c r="D33">
-        <v>0.4076688477103966</v>
+        <v>0.4076688477103957</v>
       </c>
       <c r="E33">
-        <v>0.2652173463073497</v>
+        <v>0.2652173463073493</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.1612023378911324</v>
+        <v>0.1612023378911329</v>
       </c>
       <c r="C34">
-        <v>0.1612023378911324</v>
+        <v>0.1612023378911329</v>
       </c>
       <c r="D34">
-        <v>0.09119377635223436</v>
+        <v>0.09119377635223451</v>
       </c>
       <c r="E34">
-        <v>0.05800731408934134</v>
+        <v>0.05800731408934149</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>-0.005879175480542643</v>
+        <v>-0.005879175480542109</v>
       </c>
       <c r="C39">
-        <v>0.06413278321809272</v>
+        <v>0.06413278321809326</v>
       </c>
       <c r="D39">
-        <v>0.1127807340588633</v>
+        <v>0.1127807340588639</v>
       </c>
       <c r="E39">
-        <v>0.05473420046985828</v>
+        <v>0.05473420046985846</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1467,7 +1467,7 @@
         <v>1.108705927956762</v>
       </c>
       <c r="E40">
-        <v>0.660994561415868</v>
+        <v>0.6609945614158678</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.628513283636202</v>
+        <v>0.6285132836362031</v>
       </c>
       <c r="C43">
-        <v>1.149483453559603</v>
+        <v>1.149483453559604</v>
       </c>
       <c r="D43">
         <v>1.460822192958464</v>
       </c>
       <c r="E43">
-        <v>0.6292626090042623</v>
+        <v>0.6292626090042622</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1526,10 +1526,10 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>4.396051923592998</v>
+        <v>4.396051923592999</v>
       </c>
       <c r="C44">
-        <v>4.396051923592998</v>
+        <v>4.396051923592999</v>
       </c>
       <c r="D44">
         <v>2.230167719891015</v>
@@ -1543,10 +1543,10 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2640695781581953</v>
+        <v>0.264069578158195</v>
       </c>
       <c r="C45">
-        <v>0.2640695781581953</v>
+        <v>0.264069578158195</v>
       </c>
       <c r="D45">
         <v>0.1904472873003273</v>
@@ -1560,16 +1560,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2490782467245952</v>
+        <v>0.2490782467245955</v>
       </c>
       <c r="C46">
-        <v>0.2490782467245952</v>
+        <v>0.2490782467245955</v>
       </c>
       <c r="D46">
-        <v>0.1676601840014023</v>
+        <v>0.1676601840014025</v>
       </c>
       <c r="E46">
-        <v>0.1130006168869236</v>
+        <v>0.1130006168869238</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.02209705992446826</v>
+        <v>0.02209705992446803</v>
       </c>
       <c r="C48">
-        <v>0.02209705992446826</v>
+        <v>0.02209705992446803</v>
       </c>
       <c r="D48">
-        <v>0.06149921625639319</v>
+        <v>0.06149921625639329</v>
       </c>
       <c r="E48">
-        <v>0.03675388935131435</v>
+        <v>0.03675388935131437</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1645,7 +1645,7 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>3.022529792722015</v>
+        <v>3.022529792722016</v>
       </c>
       <c r="C51">
         <v>3.06827922510804</v>
@@ -1662,16 +1662,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.1433427575696093</v>
+        <v>0.1433427575696086</v>
       </c>
       <c r="C52">
-        <v>0.1433427575696093</v>
+        <v>0.1433427575696086</v>
       </c>
       <c r="D52">
-        <v>0.06391588025395248</v>
+        <v>0.06391588025395184</v>
       </c>
       <c r="E52">
-        <v>0.03778827154717518</v>
+        <v>0.03778827154717469</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1696,13 +1696,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.7301523896274497</v>
+        <v>0.7301523896274498</v>
       </c>
       <c r="C54">
-        <v>0.7301523896274497</v>
+        <v>0.7301523896274498</v>
       </c>
       <c r="D54">
-        <v>0.6112016087393795</v>
+        <v>0.6112016087393793</v>
       </c>
       <c r="E54">
         <v>0.3332582051523393</v>
@@ -1730,16 +1730,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>-0.3961142863167129</v>
+        <v>-0.3961142863167132</v>
       </c>
       <c r="C56">
-        <v>0.3961142863167129</v>
+        <v>0.3961142863167132</v>
       </c>
       <c r="D56">
         <v>0.3201188552856578</v>
       </c>
       <c r="E56">
-        <v>0.1684611992536531</v>
+        <v>0.168461199253653</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>-0.2728206416568774</v>
+        <v>-0.2728206416568771</v>
       </c>
       <c r="C63">
-        <v>0.2728206416568774</v>
+        <v>0.2728206416568771</v>
       </c>
       <c r="D63">
-        <v>0.1181953364082014</v>
+        <v>0.1181953364082015</v>
       </c>
       <c r="E63">
-        <v>0.06942925532110336</v>
+        <v>0.0694292553211035</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>-0.003279691212654612</v>
+        <v>-0.003279691212654479</v>
       </c>
       <c r="C68">
-        <v>0.003279691212654612</v>
+        <v>0.003279691212654479</v>
       </c>
       <c r="D68">
-        <v>0.005226985640167286</v>
+        <v>0.005226985640167362</v>
       </c>
       <c r="E68">
-        <v>0.00301775976432865</v>
+        <v>0.003017759764328688</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>-0.01075660947811003</v>
+        <v>-0.01075660947811044</v>
       </c>
       <c r="C69">
-        <v>0.01075660947811003</v>
+        <v>0.01075660947811044</v>
       </c>
       <c r="D69">
-        <v>0.03027633813049629</v>
+        <v>0.03027633813049709</v>
       </c>
       <c r="E69">
-        <v>0.01721048673296622</v>
+        <v>0.01721048673296673</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.01502972507910849</v>
+        <v>0.01502972507910822</v>
       </c>
       <c r="C79">
-        <v>0.01502972507910849</v>
+        <v>0.01502972507910822</v>
       </c>
       <c r="D79">
-        <v>0.02097656029995319</v>
+        <v>0.02097656029995371</v>
       </c>
       <c r="E79">
-        <v>0.01409972492633359</v>
+        <v>0.01409972492633381</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.006680698991710044</v>
+        <v>0.006680698991711376</v>
       </c>
       <c r="C82">
-        <v>0.006680698991710044</v>
+        <v>0.006680698991711376</v>
       </c>
       <c r="D82">
-        <v>0.009154590014095606</v>
+        <v>0.009154590014095208</v>
       </c>
       <c r="E82">
-        <v>0.005263933793641356</v>
+        <v>0.005263933793640989</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.02585070116126353</v>
+        <v>0.0258507011612642</v>
       </c>
       <c r="C92">
-        <v>0.02585070116126353</v>
+        <v>0.0258507011612642</v>
       </c>
       <c r="D92">
         <v>0.03481496163660407</v>
       </c>
       <c r="E92">
-        <v>0.02065946698200715</v>
+        <v>0.02065946698200719</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.02253864906438182</v>
+        <v>0.02253864906438174</v>
       </c>
       <c r="C93">
-        <v>0.02253864906438182</v>
+        <v>0.02253864906438174</v>
       </c>
       <c r="D93">
-        <v>0.01174021954619631</v>
+        <v>0.01174021954619563</v>
       </c>
       <c r="E93">
-        <v>0.006800153540469474</v>
+        <v>0.006800153540469066</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.6081825449852334</v>
+        <v>0.6081825449852338</v>
       </c>
       <c r="C94">
-        <v>0.6081825449852334</v>
+        <v>0.6081825449852338</v>
       </c>
       <c r="D94">
-        <v>0.3814175200066461</v>
+        <v>0.381417520006647</v>
       </c>
       <c r="E94">
-        <v>0.2170371816401314</v>
+        <v>0.2170371816401319</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>-0.1907205914094828</v>
+        <v>-0.1907205914094823</v>
       </c>
       <c r="C95">
-        <v>0.2430913622292168</v>
+        <v>0.2430913622292173</v>
       </c>
       <c r="D95">
-        <v>0.2343174208688036</v>
+        <v>0.2343174208688044</v>
       </c>
       <c r="E95">
-        <v>0.1081034031166675</v>
+        <v>0.1081034031166672</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.007291111283727636</v>
+        <v>0.007291111283727702</v>
       </c>
       <c r="C97">
-        <v>0.007291111283727636</v>
+        <v>0.007291111283727702</v>
       </c>
       <c r="D97">
-        <v>0.01599575960895943</v>
+        <v>0.01599575960895961</v>
       </c>
       <c r="E97">
-        <v>0.008412600096089181</v>
+        <v>0.008412600096089266</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>-1.17145504654812</v>
+        <v>-1.171455046548118</v>
       </c>
       <c r="C102">
-        <v>1.17145504654812</v>
+        <v>1.171455046548118</v>
       </c>
       <c r="D102">
-        <v>0.23818427598158</v>
+        <v>0.2381842759815787</v>
       </c>
       <c r="E102">
-        <v>0.1391201298293468</v>
+        <v>0.1391201298293458</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>-0.1926407991770401</v>
+        <v>-0.1926407991770402</v>
       </c>
       <c r="C103">
-        <v>0.1926407991770401</v>
+        <v>0.1926407991770402</v>
       </c>
       <c r="D103">
-        <v>0.06198476886275732</v>
+        <v>0.06198476886275735</v>
       </c>
       <c r="E103">
-        <v>0.03384194452347038</v>
+        <v>0.03384194452347039</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>-0.3773220782230071</v>
+        <v>-0.3773220782230068</v>
       </c>
       <c r="C104">
-        <v>0.3773220782230071</v>
+        <v>0.3773220782230068</v>
       </c>
       <c r="D104">
-        <v>0.3172284873511602</v>
+        <v>0.3172284873511595</v>
       </c>
       <c r="E104">
-        <v>0.2109065732234112</v>
+        <v>0.2109065732234107</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>-0.04647279428297715</v>
+        <v>-0.04647279428297695</v>
       </c>
       <c r="C105">
-        <v>0.04647279428297715</v>
+        <v>0.04647279428297695</v>
       </c>
       <c r="D105">
-        <v>0.02162983779505234</v>
+        <v>0.02162983779505263</v>
       </c>
       <c r="E105">
-        <v>0.01315439042967132</v>
+        <v>0.01315439042967152</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.01395329472146938</v>
+        <v>0.01395329472146934</v>
       </c>
       <c r="C107">
-        <v>0.01812342527853095</v>
+        <v>0.01812342527853091</v>
       </c>
       <c r="D107">
-        <v>0.01222886063181717</v>
+        <v>0.01222886063181716</v>
       </c>
       <c r="E107">
-        <v>0.0005091266746938524</v>
+        <v>0.0005091266746938293</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>-0.005188163607678753</v>
+        <v>-0.005188163607678886</v>
       </c>
       <c r="C124">
-        <v>0.005188163607678753</v>
+        <v>0.005188163607678886</v>
       </c>
       <c r="D124">
-        <v>0.0164064138738611</v>
+        <v>0.01640641387386153</v>
       </c>
       <c r="E124">
-        <v>0.01042223415998168</v>
+        <v>0.01042223415998195</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2943,7 +2943,7 @@
         <v>5.497265306218863</v>
       </c>
       <c r="D127">
-        <v>2.883035506678637</v>
+        <v>2.883035506678638</v>
       </c>
       <c r="E127">
         <v>1.41626390009551</v>
@@ -2971,16 +2971,16 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.1759087396337848</v>
+        <v>0.1759087396337846</v>
       </c>
       <c r="C129">
-        <v>0.1759087396337848</v>
+        <v>0.1759087396337846</v>
       </c>
       <c r="D129">
-        <v>0.01664172155400792</v>
+        <v>0.01664172155400795</v>
       </c>
       <c r="E129">
-        <v>0.009794133816468115</v>
+        <v>0.009794133816468124</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>-0.1566324053090975</v>
+        <v>-0.1566324053090979</v>
       </c>
       <c r="C130">
-        <v>0.1566324053090975</v>
+        <v>0.1566324053090979</v>
       </c>
       <c r="D130">
-        <v>0.05111605703413481</v>
+        <v>0.05111605703413537</v>
       </c>
       <c r="E130">
-        <v>0.03335959101737927</v>
+        <v>0.03335959101737979</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3011,10 +3011,10 @@
         <v>0.4819131088259955</v>
       </c>
       <c r="D131">
-        <v>0.1470578361107298</v>
+        <v>0.1470578361107299</v>
       </c>
       <c r="E131">
-        <v>0.08609687680642975</v>
+        <v>0.08609687680642976</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>-0.1677773019689581</v>
+        <v>-0.1677773019689579</v>
       </c>
       <c r="C133">
-        <v>0.1677773019689581</v>
+        <v>0.1677773019689579</v>
       </c>
       <c r="D133">
-        <v>0.1338749288304388</v>
+        <v>0.1338749288304389</v>
       </c>
       <c r="E133">
-        <v>0.07733539095717835</v>
+        <v>0.07733539095717845</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>-0.1220491578976274</v>
+        <v>-0.1220491578976281</v>
       </c>
       <c r="C134">
-        <v>0.1220491578976274</v>
+        <v>0.1220491578976281</v>
       </c>
       <c r="D134">
-        <v>0.1213399077555259</v>
+        <v>0.1213399077555258</v>
       </c>
       <c r="E134">
-        <v>0.07756942517828283</v>
+        <v>0.07756942517828277</v>
       </c>
     </row>
   </sheetData>

--- a/exposan/bwaise/results/MorrisB.xlsx
+++ b/exposan/bwaise/results/MorrisB.xlsx
@@ -821,16 +821,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>-0.5319438882841525</v>
+        <v>-0.5319438882841521</v>
       </c>
       <c r="D2">
-        <v>0.5319438882841525</v>
+        <v>0.5319438882841521</v>
       </c>
       <c r="E2">
-        <v>0.3653389541724468</v>
+        <v>0.3653389541724474</v>
       </c>
       <c r="F2">
-        <v>0.2302211183484998</v>
+        <v>0.2302211183485002</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -841,16 +841,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>-0.1076792693594551</v>
+        <v>-0.1076792693594574</v>
       </c>
       <c r="D3">
-        <v>0.1076792693594551</v>
+        <v>0.1076792693594574</v>
       </c>
       <c r="E3">
-        <v>0.04879741904797093</v>
+        <v>0.04879741904796859</v>
       </c>
       <c r="F3">
-        <v>0.03183174352824574</v>
+        <v>0.03183174352824409</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -861,16 +861,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-0.02336524606668062</v>
+        <v>-0.02336524606668042</v>
       </c>
       <c r="D4">
-        <v>0.03545963784787807</v>
+        <v>0.0354596378478768</v>
       </c>
       <c r="E4">
-        <v>0.03238876051172072</v>
+        <v>0.03238876051171911</v>
       </c>
       <c r="F4">
-        <v>0.01012624915694207</v>
+        <v>0.01012624915694152</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -881,16 +881,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-0.1062178557451072</v>
+        <v>-0.1062178557451083</v>
       </c>
       <c r="D5">
-        <v>0.1062178557451072</v>
+        <v>0.1062178557451083</v>
       </c>
       <c r="E5">
-        <v>0.0854013917715314</v>
+        <v>0.08540139177153053</v>
       </c>
       <c r="F5">
-        <v>0.04977526570490823</v>
+        <v>0.04977526570490749</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -901,16 +901,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-0.6035325108181547</v>
+        <v>-0.6035325108181536</v>
       </c>
       <c r="D6">
-        <v>0.6035325108181547</v>
+        <v>0.6035325108181536</v>
       </c>
       <c r="E6">
-        <v>0.3163231777436986</v>
+        <v>0.3163231777436983</v>
       </c>
       <c r="F6">
-        <v>0.1808381126108481</v>
+        <v>0.1808381126108475</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -921,16 +921,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-0.1070575377107101</v>
+        <v>-0.1070575377107085</v>
       </c>
       <c r="D7">
-        <v>0.1150176146893916</v>
+        <v>0.1150176146893922</v>
       </c>
       <c r="E7">
-        <v>0.09455889996785152</v>
+        <v>0.09455889996785423</v>
       </c>
       <c r="F7">
-        <v>0.05199586969632547</v>
+        <v>0.05199586969632595</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -941,16 +941,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>-0.05790879774084953</v>
+        <v>-0.05790879774085047</v>
       </c>
       <c r="D8">
-        <v>0.06471119080887146</v>
+        <v>0.0647111908088724</v>
       </c>
       <c r="E8">
-        <v>0.05202580333083553</v>
+        <v>0.05202580333083499</v>
       </c>
       <c r="F8">
-        <v>0.02693919629877331</v>
+        <v>0.0269391962987727</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -961,16 +961,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>-0.004462886888135426</v>
+        <v>-0.004462886888135226</v>
       </c>
       <c r="D9">
-        <v>0.004462886888135426</v>
+        <v>0.004462886888135226</v>
       </c>
       <c r="E9">
-        <v>0.005222116439987236</v>
+        <v>0.005222116439986737</v>
       </c>
       <c r="F9">
-        <v>0.002881264198486935</v>
+        <v>0.002881264198486542</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -981,16 +981,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>-0.003850321751932223</v>
+        <v>-0.00385032175193174</v>
       </c>
       <c r="D10">
-        <v>0.003850321751932223</v>
+        <v>0.00385032175193174</v>
       </c>
       <c r="E10">
-        <v>0.002892035727244547</v>
+        <v>0.002892035727244718</v>
       </c>
       <c r="F10">
-        <v>0.001800176968042722</v>
+        <v>0.00180017696804288</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1001,16 +1001,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-0.08855930578619983</v>
+        <v>-0.08855930578619919</v>
       </c>
       <c r="D11">
-        <v>0.08855930578619983</v>
+        <v>0.08855930578619919</v>
       </c>
       <c r="E11">
-        <v>0.0364040992408453</v>
+        <v>0.03640409924084698</v>
       </c>
       <c r="F11">
-        <v>0.02154883348324311</v>
+        <v>0.02154883348324422</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1027,10 +1027,10 @@
         <v>2.815932870791755</v>
       </c>
       <c r="E12">
-        <v>1.020725272948936</v>
+        <v>1.020725272948935</v>
       </c>
       <c r="F12">
-        <v>0.5814521731122466</v>
+        <v>0.5814521731122464</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1041,16 +1041,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>-0.002573855078325549</v>
+        <v>-0.002573855078325948</v>
       </c>
       <c r="D13">
-        <v>0.006422544468436575</v>
+        <v>0.006422544468437241</v>
       </c>
       <c r="E13">
-        <v>0.01437358584736856</v>
+        <v>0.01437358584736862</v>
       </c>
       <c r="F13">
-        <v>0.006485808528778812</v>
+        <v>0.00648580852877863</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1061,16 +1061,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.02340195678676284</v>
+        <v>0.02340195678676365</v>
       </c>
       <c r="D14">
-        <v>0.03076648522852334</v>
+        <v>0.03076648522852254</v>
       </c>
       <c r="E14">
-        <v>0.08770841459937569</v>
+        <v>0.08770841459937545</v>
       </c>
       <c r="F14">
-        <v>0.05080339775459802</v>
+        <v>0.05080339775459821</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1081,16 +1081,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.006482960618782552</v>
+        <v>0.006482960618782318</v>
       </c>
       <c r="D15">
-        <v>0.01011183175530619</v>
+        <v>0.01011183175530569</v>
       </c>
       <c r="E15">
-        <v>0.02747444915587187</v>
+        <v>0.02747444915587014</v>
       </c>
       <c r="F15">
-        <v>0.0144074467164593</v>
+        <v>0.01440744671645829</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1104,13 +1104,13 @@
         <v>-0.005188163607678753</v>
       </c>
       <c r="D16">
-        <v>0.005188163607679019</v>
+        <v>0.005188163607678753</v>
       </c>
       <c r="E16">
-        <v>0.01640641387386157</v>
+        <v>0.0164064138738611</v>
       </c>
       <c r="F16">
-        <v>0.009364408956967213</v>
+        <v>0.009364408956966991</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1121,16 +1121,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.001501396950852396</v>
+        <v>0.001501396950852929</v>
       </c>
       <c r="D17">
-        <v>0.001903572981354274</v>
+        <v>0.001903572981354806</v>
       </c>
       <c r="E17">
-        <v>0.002633546359531086</v>
+        <v>0.002633546359531293</v>
       </c>
       <c r="F17">
-        <v>0.001373148615669952</v>
+        <v>0.001373148615670059</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1141,16 +1141,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.0006166185828779591</v>
+        <v>0.0006166185828794246</v>
       </c>
       <c r="D18">
-        <v>0.0007166080183826695</v>
+        <v>0.0007166080183820034</v>
       </c>
       <c r="E18">
-        <v>0.001187133935405487</v>
+        <v>0.001187133935406001</v>
       </c>
       <c r="F18">
-        <v>0.0007007239290244944</v>
+        <v>0.0007007239290256822</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1161,16 +1161,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>-0.003962559119861786</v>
+        <v>-0.00396255911986052</v>
       </c>
       <c r="D19">
-        <v>0.003962559119861786</v>
+        <v>0.00396255911986052</v>
       </c>
       <c r="E19">
-        <v>0.0111051520047305</v>
+        <v>0.01110515200472707</v>
       </c>
       <c r="F19">
-        <v>0.006800541627680875</v>
+        <v>0.006800541627679341</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1181,16 +1181,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>-0.0004747634140949808</v>
+        <v>-0.0004747634140957801</v>
       </c>
       <c r="D20">
-        <v>0.0004747634140949808</v>
+        <v>0.0004747634140957801</v>
       </c>
       <c r="E20">
-        <v>0.0004714291465016563</v>
+        <v>0.0004714291465044507</v>
       </c>
       <c r="F20">
-        <v>0.0002997516302072314</v>
+        <v>0.00029975163020911</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1201,16 +1201,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>-0.007904609462935742</v>
+        <v>-0.007904609462934276</v>
       </c>
       <c r="D21">
-        <v>0.008658809162894455</v>
+        <v>0.008658809162895919</v>
       </c>
       <c r="E21">
-        <v>0.02632307717164651</v>
+        <v>0.02632307717164703</v>
       </c>
       <c r="F21">
-        <v>0.01720115207544881</v>
+        <v>0.01720115207544853</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1221,16 +1221,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0.01420121304938319</v>
+        <v>0.01420121304938144</v>
       </c>
       <c r="D22">
-        <v>0.01420121304938319</v>
+        <v>0.01420121304938144</v>
       </c>
       <c r="E22">
-        <v>0.04460445417862798</v>
+        <v>0.04460445417862859</v>
       </c>
       <c r="F22">
-        <v>0.02497140878808338</v>
+        <v>0.02497140878808388</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1241,16 +1241,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0.001991029998669935</v>
+        <v>0.001991029998670135</v>
       </c>
       <c r="D23">
-        <v>0.007178157321072432</v>
+        <v>0.007178157321072099</v>
       </c>
       <c r="E23">
-        <v>0.01743156917347105</v>
+        <v>0.01743156917346907</v>
       </c>
       <c r="F23">
-        <v>0.008563313485963071</v>
+        <v>0.008563313485962126</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1261,16 +1261,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>-0.003684312590988664</v>
+        <v>-0.003684312590988531</v>
       </c>
       <c r="D24">
-        <v>0.003684312590988664</v>
+        <v>0.003684312590988531</v>
       </c>
       <c r="E24">
-        <v>0.01164884869852331</v>
+        <v>0.01164884869852336</v>
       </c>
       <c r="F24">
-        <v>0.006805444626352427</v>
+        <v>0.006805444626352467</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1281,16 +1281,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0.03082428486002413</v>
+        <v>0.0308242848600244</v>
       </c>
       <c r="D25">
-        <v>0.03082668573316989</v>
+        <v>0.03082668573317136</v>
       </c>
       <c r="E25">
-        <v>0.09035461344124274</v>
+        <v>0.09035461344124396</v>
       </c>
       <c r="F25">
-        <v>0.05398128183675549</v>
+        <v>0.05398128183675627</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1301,16 +1301,16 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0.02186342543469395</v>
+        <v>0.02186342543469368</v>
       </c>
       <c r="D26">
-        <v>0.02188450035382259</v>
+        <v>0.02188450035382179</v>
       </c>
       <c r="E26">
-        <v>0.04642847226154301</v>
+        <v>0.0464284722615419</v>
       </c>
       <c r="F26">
-        <v>0.0269958849107779</v>
+        <v>0.02699588491077754</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1327,10 +1327,10 @@
         <v>32.96731832621015</v>
       </c>
       <c r="E27">
-        <v>8.36968854126402</v>
+        <v>8.369688541264026</v>
       </c>
       <c r="F27">
-        <v>4.64270178851428</v>
+        <v>4.642701788514281</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1341,16 +1341,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>-6.650296879735798</v>
+        <v>-6.650296879735801</v>
       </c>
       <c r="D28">
-        <v>6.650296879735798</v>
+        <v>6.650296879735801</v>
       </c>
       <c r="E28">
-        <v>5.705889647771853</v>
+        <v>5.705889647771856</v>
       </c>
       <c r="F28">
-        <v>3.437042620905447</v>
+        <v>3.437042620905449</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1361,16 +1361,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0.009052284937670107</v>
+        <v>0.009052284937671008</v>
       </c>
       <c r="D29">
-        <v>0.009052284937670107</v>
+        <v>0.009052284937671008</v>
       </c>
       <c r="E29">
-        <v>0.005576373192364713</v>
+        <v>0.005576373192363634</v>
       </c>
       <c r="F29">
-        <v>0.003451785797823883</v>
+        <v>0.003451785797823177</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1381,16 +1381,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0.04401424952188073</v>
+        <v>0.04401424952188093</v>
       </c>
       <c r="D30">
-        <v>0.04877023622163527</v>
+        <v>0.04877023622163548</v>
       </c>
       <c r="E30">
-        <v>0.1013029273551768</v>
+        <v>0.1013029273551774</v>
       </c>
       <c r="F30">
-        <v>0.05428928125011939</v>
+        <v>0.05428928125011974</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1441,16 +1441,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0.5934336071287851</v>
+        <v>0.5934336071287856</v>
       </c>
       <c r="D33">
-        <v>0.5934336071287851</v>
+        <v>0.5934336071287856</v>
       </c>
       <c r="E33">
-        <v>0.4076688477103957</v>
+        <v>0.4076688477103971</v>
       </c>
       <c r="F33">
-        <v>0.2652173463073493</v>
+        <v>0.2652173463073501</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1461,16 +1461,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0.1612023378911329</v>
+        <v>0.1612023378911321</v>
       </c>
       <c r="D34">
-        <v>0.1612023378911329</v>
+        <v>0.1612023378911321</v>
       </c>
       <c r="E34">
-        <v>0.09119377635223451</v>
+        <v>0.09119377635223511</v>
       </c>
       <c r="F34">
-        <v>0.05800731408934149</v>
+        <v>0.05800731408934179</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1561,16 +1561,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>-0.005879175480542109</v>
+        <v>-0.005879175480542643</v>
       </c>
       <c r="D39">
-        <v>0.06413278321809326</v>
+        <v>0.06413278321809272</v>
       </c>
       <c r="E39">
-        <v>0.1127807340588639</v>
+        <v>0.1127807340588633</v>
       </c>
       <c r="F39">
-        <v>0.05473420046985846</v>
+        <v>0.05473420046985828</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1587,10 +1587,10 @@
         <v>1.627769438274326</v>
       </c>
       <c r="E40">
-        <v>1.108705927956762</v>
+        <v>1.108705927956764</v>
       </c>
       <c r="F40">
-        <v>0.6609945614158678</v>
+        <v>0.6609945614158688</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1641,7 +1641,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0.6285132836362031</v>
+        <v>0.6285132836362032</v>
       </c>
       <c r="D43">
         <v>1.149483453559604</v>
@@ -1650,7 +1650,7 @@
         <v>1.460822192958464</v>
       </c>
       <c r="F43">
-        <v>0.6292626090042622</v>
+        <v>0.6292626090042627</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1661,10 +1661,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.396051923592999</v>
+        <v>4.396051923592998</v>
       </c>
       <c r="D44">
-        <v>4.396051923592999</v>
+        <v>4.396051923592998</v>
       </c>
       <c r="E44">
         <v>2.230167719891015</v>
@@ -1681,16 +1681,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0.264069578158195</v>
+        <v>0.2640695781581947</v>
       </c>
       <c r="D45">
-        <v>0.264069578158195</v>
+        <v>0.2640695781581947</v>
       </c>
       <c r="E45">
-        <v>0.1904472873003273</v>
+        <v>0.1904472873003243</v>
       </c>
       <c r="F45">
-        <v>0.1169749005808797</v>
+        <v>0.1169749005808778</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1701,13 +1701,13 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0.2490782467245955</v>
+        <v>0.2490782467245938</v>
       </c>
       <c r="D46">
-        <v>0.2490782467245955</v>
+        <v>0.2490782467245938</v>
       </c>
       <c r="E46">
-        <v>0.1676601840014025</v>
+        <v>0.1676601840014026</v>
       </c>
       <c r="F46">
         <v>0.1130006168869238</v>
@@ -1721,16 +1721,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0.04796710816433012</v>
+        <v>0.04796710816433052</v>
       </c>
       <c r="D47">
-        <v>0.04796710816433012</v>
+        <v>0.04796710816433052</v>
       </c>
       <c r="E47">
-        <v>0.02383592417668953</v>
+        <v>0.02383592417668967</v>
       </c>
       <c r="F47">
-        <v>0.01297747737630306</v>
+        <v>0.01297747737630314</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1741,16 +1741,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>0.02209705992446803</v>
+        <v>0.02209705992446833</v>
       </c>
       <c r="D48">
-        <v>0.02209705992446803</v>
+        <v>0.02209705992446833</v>
       </c>
       <c r="E48">
-        <v>0.06149921625639329</v>
+        <v>0.06149921625639448</v>
       </c>
       <c r="F48">
-        <v>0.03675388935131437</v>
+        <v>0.03675388935131524</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1781,16 +1781,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0.01087949092578379</v>
+        <v>0.01087949092578362</v>
       </c>
       <c r="D50">
-        <v>0.01087949092578379</v>
+        <v>0.01087949092578362</v>
       </c>
       <c r="E50">
-        <v>0.03064077000934006</v>
+        <v>0.03064077000933954</v>
       </c>
       <c r="F50">
-        <v>0.01587933926139899</v>
+        <v>0.01587933926139872</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1804,10 +1804,10 @@
         <v>3.022529792722016</v>
       </c>
       <c r="D51">
-        <v>3.06827922510804</v>
+        <v>3.068279225108041</v>
       </c>
       <c r="E51">
-        <v>2.529984972272607</v>
+        <v>2.529984972272606</v>
       </c>
       <c r="F51">
         <v>1.337606551780621</v>
@@ -1821,16 +1821,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0.1433427575696086</v>
+        <v>0.1433427575696095</v>
       </c>
       <c r="D52">
-        <v>0.1433427575696086</v>
+        <v>0.1433427575696095</v>
       </c>
       <c r="E52">
-        <v>0.06391588025395184</v>
+        <v>0.0639158802539524</v>
       </c>
       <c r="F52">
-        <v>0.03778827154717469</v>
+        <v>0.03778827154717518</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1861,10 +1861,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0.7301523896274498</v>
+        <v>0.7301523896274501</v>
       </c>
       <c r="D54">
-        <v>0.7301523896274498</v>
+        <v>0.7301523896274501</v>
       </c>
       <c r="E54">
         <v>0.6112016087393793</v>
@@ -1901,16 +1901,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>-0.3961142863167132</v>
+        <v>-0.3961142863167142</v>
       </c>
       <c r="D56">
-        <v>0.3961142863167132</v>
+        <v>0.3961142863167142</v>
       </c>
       <c r="E56">
-        <v>0.3201188552856578</v>
+        <v>0.3201188552856579</v>
       </c>
       <c r="F56">
-        <v>0.168461199253653</v>
+        <v>0.1684611992536535</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1981,16 +1981,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>-0.03829921499256482</v>
+        <v>-0.03829921499256499</v>
       </c>
       <c r="D60">
-        <v>0.03829921499256482</v>
+        <v>0.03829921499256499</v>
       </c>
       <c r="E60">
-        <v>0.1211127519729736</v>
+        <v>0.1211127519729741</v>
       </c>
       <c r="F60">
-        <v>0.0739035815395912</v>
+        <v>0.07390358153959152</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2041,16 +2041,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>-0.2728206416568771</v>
+        <v>-0.2728206416568773</v>
       </c>
       <c r="D63">
-        <v>0.2728206416568771</v>
+        <v>0.2728206416568773</v>
       </c>
       <c r="E63">
-        <v>0.1181953364082015</v>
+        <v>0.1181953364082013</v>
       </c>
       <c r="F63">
-        <v>0.0694292553211035</v>
+        <v>0.06942925532110342</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2121,16 +2121,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0.01603361674770383</v>
+        <v>0.01603361674770369</v>
       </c>
       <c r="D67">
-        <v>0.01653489660654841</v>
+        <v>0.01653489660654828</v>
       </c>
       <c r="E67">
-        <v>0.009199510798900185</v>
+        <v>0.00919951079890019</v>
       </c>
       <c r="F67">
-        <v>0.004460475489918275</v>
+        <v>0.004460475489918249</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2141,16 +2141,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>-0.003279691212654479</v>
+        <v>-0.003279691212654345</v>
       </c>
       <c r="D68">
-        <v>0.003279691212654479</v>
+        <v>0.003279691212654345</v>
       </c>
       <c r="E68">
-        <v>0.005226985640167362</v>
+        <v>0.005226985640167371</v>
       </c>
       <c r="F68">
-        <v>0.003017759764328688</v>
+        <v>0.003017759764328672</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2161,16 +2161,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>-0.01075660947811044</v>
+        <v>-0.01075660947811017</v>
       </c>
       <c r="D69">
-        <v>0.01075660947811044</v>
+        <v>0.01075660947811017</v>
       </c>
       <c r="E69">
-        <v>0.03027633813049709</v>
+        <v>0.03027633813049627</v>
       </c>
       <c r="F69">
-        <v>0.01721048673296673</v>
+        <v>0.01721048673296621</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2361,16 +2361,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>0.01502972507910822</v>
+        <v>0.01502972507910849</v>
       </c>
       <c r="D79">
-        <v>0.01502972507910822</v>
+        <v>0.01502972507910849</v>
       </c>
       <c r="E79">
-        <v>0.02097656029995371</v>
+        <v>0.02097656029995319</v>
       </c>
       <c r="F79">
-        <v>0.01409972492633381</v>
+        <v>0.01409972492633359</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2401,16 +2401,16 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0.00990705504799878</v>
+        <v>0.009907055047999314</v>
       </c>
       <c r="D81">
-        <v>0.0169775923714093</v>
+        <v>0.01697759237140877</v>
       </c>
       <c r="E81">
-        <v>0.04513919425934983</v>
+        <v>0.04513919425934924</v>
       </c>
       <c r="F81">
-        <v>0.02508699613027285</v>
+        <v>0.02508699613027275</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2621,16 +2621,16 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0.0258507011612642</v>
+        <v>0.02585070116126407</v>
       </c>
       <c r="D92">
-        <v>0.0258507011612642</v>
+        <v>0.02585070116126407</v>
       </c>
       <c r="E92">
-        <v>0.03481496163660407</v>
+        <v>0.03481496163660383</v>
       </c>
       <c r="F92">
-        <v>0.02065946698200719</v>
+        <v>0.02065946698200696</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2641,16 +2641,16 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0.02253864906438174</v>
+        <v>0.02253864906438209</v>
       </c>
       <c r="D93">
-        <v>0.02253864906438174</v>
+        <v>0.02253864906438209</v>
       </c>
       <c r="E93">
-        <v>0.01174021954619563</v>
+        <v>0.01174021954619635</v>
       </c>
       <c r="F93">
-        <v>0.006800153540469066</v>
+        <v>0.006800153540469509</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2661,16 +2661,16 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0.6081825449852338</v>
+        <v>0.6081825449852332</v>
       </c>
       <c r="D94">
-        <v>0.6081825449852338</v>
+        <v>0.6081825449852332</v>
       </c>
       <c r="E94">
-        <v>0.381417520006647</v>
+        <v>0.3814175200066451</v>
       </c>
       <c r="F94">
-        <v>0.2170371816401319</v>
+        <v>0.217037181640131</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2681,16 +2681,16 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>-0.1907205914094823</v>
+        <v>-0.1907205914094843</v>
       </c>
       <c r="D95">
-        <v>0.2430913622292173</v>
+        <v>0.2430913622292179</v>
       </c>
       <c r="E95">
-        <v>0.2343174208688044</v>
+        <v>0.2343174208688041</v>
       </c>
       <c r="F95">
-        <v>0.1081034031166672</v>
+        <v>0.1081034031166682</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2721,16 +2721,16 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>0.007291111283727702</v>
+        <v>0.007291111283727636</v>
       </c>
       <c r="D97">
-        <v>0.007291111283727702</v>
+        <v>0.007291111283727636</v>
       </c>
       <c r="E97">
-        <v>0.01599575960895961</v>
+        <v>0.01599575960895943</v>
       </c>
       <c r="F97">
-        <v>0.008412600096089266</v>
+        <v>0.008412600096089181</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2821,16 +2821,16 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>-1.171455046548118</v>
+        <v>-1.17145504654812</v>
       </c>
       <c r="D102">
-        <v>1.171455046548118</v>
+        <v>1.17145504654812</v>
       </c>
       <c r="E102">
-        <v>0.2381842759815787</v>
+        <v>0.238184275981577</v>
       </c>
       <c r="F102">
-        <v>0.1391201298293458</v>
+        <v>0.1391201298293443</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2847,10 +2847,10 @@
         <v>0.1926407991770402</v>
       </c>
       <c r="E103">
-        <v>0.06198476886275735</v>
+        <v>0.06198476886275729</v>
       </c>
       <c r="F103">
-        <v>0.03384194452347039</v>
+        <v>0.03384194452347034</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2881,16 +2881,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>-0.04647279428297695</v>
+        <v>-0.04647279428297648</v>
       </c>
       <c r="D105">
-        <v>0.04647279428297695</v>
+        <v>0.04647279428297648</v>
       </c>
       <c r="E105">
-        <v>0.02162983779505263</v>
+        <v>0.02162983779505236</v>
       </c>
       <c r="F105">
-        <v>0.01315439042967152</v>
+        <v>0.01315439042967127</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2901,10 +2901,10 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>1.352899574425612</v>
+        <v>1.352899574425611</v>
       </c>
       <c r="D106">
-        <v>1.352899574425612</v>
+        <v>1.352899574425611</v>
       </c>
       <c r="E106">
         <v>1.123524517146593</v>
@@ -2921,16 +2921,16 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0.01395329472146934</v>
+        <v>0.01395329472146884</v>
       </c>
       <c r="D107">
-        <v>0.01812342527853091</v>
+        <v>0.01812342527853041</v>
       </c>
       <c r="E107">
-        <v>0.01222886063181716</v>
+        <v>0.01222886063181699</v>
       </c>
       <c r="F107">
-        <v>0.0005091266746938293</v>
+        <v>0.0005091266746939355</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2981,16 +2981,16 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>-0.001544829959180705</v>
+        <v>-0.001544829959180838</v>
       </c>
       <c r="D110">
-        <v>0.001544829959180705</v>
+        <v>0.001544829959180838</v>
       </c>
       <c r="E110">
-        <v>0.004885181268675973</v>
+        <v>0.004885181268676393</v>
       </c>
       <c r="F110">
-        <v>0.003052028473561213</v>
+        <v>0.003052028473561476</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3261,16 +3261,16 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>-0.005188163607678886</v>
+        <v>-0.005188163607678753</v>
       </c>
       <c r="D124">
-        <v>0.005188163607678886</v>
+        <v>0.005188163607678753</v>
       </c>
       <c r="E124">
-        <v>0.01640641387386153</v>
+        <v>0.0164064138738611</v>
       </c>
       <c r="F124">
-        <v>0.01042223415998195</v>
+        <v>0.01042223415998168</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3321,13 +3321,13 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>5.497265306218863</v>
+        <v>5.497265306218861</v>
       </c>
       <c r="D127">
-        <v>5.497265306218863</v>
+        <v>5.497265306218861</v>
       </c>
       <c r="E127">
-        <v>2.883035506678638</v>
+        <v>2.883035506678636</v>
       </c>
       <c r="F127">
         <v>1.41626390009551</v>
@@ -3361,16 +3361,16 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>0.1759087396337846</v>
+        <v>0.1759087396337857</v>
       </c>
       <c r="D129">
-        <v>0.1759087396337846</v>
+        <v>0.1759087396337857</v>
       </c>
       <c r="E129">
-        <v>0.01664172155400795</v>
+        <v>0.01664172155400698</v>
       </c>
       <c r="F129">
-        <v>0.009794133816468124</v>
+        <v>0.009794133816467652</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3381,16 +3381,16 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>-0.1566324053090979</v>
+        <v>-0.1566324053090973</v>
       </c>
       <c r="D130">
-        <v>0.1566324053090979</v>
+        <v>0.1566324053090973</v>
       </c>
       <c r="E130">
-        <v>0.05111605703413537</v>
+        <v>0.05111605703413492</v>
       </c>
       <c r="F130">
-        <v>0.03335959101737979</v>
+        <v>0.03335959101737931</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3401,16 +3401,16 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>0.4819131088259955</v>
+        <v>0.4819131088259941</v>
       </c>
       <c r="D131">
-        <v>0.4819131088259955</v>
+        <v>0.4819131088259941</v>
       </c>
       <c r="E131">
-        <v>0.1470578361107299</v>
+        <v>0.1470578361107292</v>
       </c>
       <c r="F131">
-        <v>0.08609687680642976</v>
+        <v>0.08609687680642911</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3421,16 +3421,16 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>0.1037614108507748</v>
+        <v>0.103761410850775</v>
       </c>
       <c r="D132">
-        <v>0.1037614108507748</v>
+        <v>0.103761410850775</v>
       </c>
       <c r="E132">
-        <v>0.1240973072421148</v>
+        <v>0.124097307242115</v>
       </c>
       <c r="F132">
-        <v>0.07664376750214062</v>
+        <v>0.07664376750214075</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3441,16 +3441,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>-0.1677773019689579</v>
+        <v>-0.1677773019689591</v>
       </c>
       <c r="D133">
-        <v>0.1677773019689579</v>
+        <v>0.1677773019689591</v>
       </c>
       <c r="E133">
-        <v>0.1338749288304389</v>
+        <v>0.1338749288304392</v>
       </c>
       <c r="F133">
-        <v>0.07733539095717845</v>
+        <v>0.07733539095717874</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3461,16 +3461,16 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>-0.1220491578976281</v>
+        <v>-0.1220491578976274</v>
       </c>
       <c r="D134">
-        <v>0.1220491578976281</v>
+        <v>0.1220491578976274</v>
       </c>
       <c r="E134">
-        <v>0.1213399077555258</v>
+        <v>0.1213399077555259</v>
       </c>
       <c r="F134">
-        <v>0.07756942517828277</v>
+        <v>0.07756942517828283</v>
       </c>
     </row>
   </sheetData>

--- a/exposan/bwaise/results/MorrisB.xlsx
+++ b/exposan/bwaise/results/MorrisB.xlsx
@@ -821,16 +821,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>-0.5319438882841521</v>
+        <v>-0.5319438882841523</v>
       </c>
       <c r="D2">
-        <v>0.5319438882841521</v>
+        <v>0.5319438882841523</v>
       </c>
       <c r="E2">
-        <v>0.3653389541724474</v>
+        <v>0.3653389541724473</v>
       </c>
       <c r="F2">
-        <v>0.2302211183485002</v>
+        <v>0.2302211183485001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -841,16 +841,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>-0.1076792693594574</v>
+        <v>-0.1076792693594582</v>
       </c>
       <c r="D3">
-        <v>0.1076792693594574</v>
+        <v>0.1076792693594582</v>
       </c>
       <c r="E3">
-        <v>0.04879741904796859</v>
+        <v>0.04879741904796837</v>
       </c>
       <c r="F3">
-        <v>0.03183174352824409</v>
+        <v>0.0318317435282444</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -861,16 +861,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-0.02336524606668042</v>
+        <v>-0.02336524606668069</v>
       </c>
       <c r="D4">
-        <v>0.0354596378478768</v>
+        <v>0.03545963784787707</v>
       </c>
       <c r="E4">
-        <v>0.03238876051171911</v>
+        <v>0.03238876051171928</v>
       </c>
       <c r="F4">
-        <v>0.01012624915694152</v>
+        <v>0.01012624915694162</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -881,16 +881,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-0.1062178557451083</v>
+        <v>-0.1062178557451084</v>
       </c>
       <c r="D5">
-        <v>0.1062178557451083</v>
+        <v>0.1062178557451084</v>
       </c>
       <c r="E5">
-        <v>0.08540139177153053</v>
+        <v>0.08540139177153055</v>
       </c>
       <c r="F5">
-        <v>0.04977526570490749</v>
+        <v>0.04977526570490765</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -901,16 +901,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-0.6035325108181536</v>
+        <v>-0.6035325108181535</v>
       </c>
       <c r="D6">
-        <v>0.6035325108181536</v>
+        <v>0.6035325108181535</v>
       </c>
       <c r="E6">
-        <v>0.3163231777436983</v>
+        <v>0.3163231777436984</v>
       </c>
       <c r="F6">
-        <v>0.1808381126108475</v>
+        <v>0.1808381126108476</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -941,16 +941,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>-0.05790879774085047</v>
+        <v>-0.0579087977408506</v>
       </c>
       <c r="D8">
-        <v>0.0647111908088724</v>
+        <v>0.06471119080887253</v>
       </c>
       <c r="E8">
-        <v>0.05202580333083499</v>
+        <v>0.0520258033308351</v>
       </c>
       <c r="F8">
-        <v>0.0269391962987727</v>
+        <v>0.02693919629877275</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -961,16 +961,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>-0.004462886888135226</v>
+        <v>-0.00446288688813476</v>
       </c>
       <c r="D9">
-        <v>0.004462886888135226</v>
+        <v>0.00446288688813476</v>
       </c>
       <c r="E9">
-        <v>0.005222116439986737</v>
+        <v>0.005222116439986599</v>
       </c>
       <c r="F9">
-        <v>0.002881264198486542</v>
+        <v>0.002881264198486343</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -981,16 +981,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>-0.00385032175193174</v>
+        <v>-0.003850321751932689</v>
       </c>
       <c r="D10">
-        <v>0.00385032175193174</v>
+        <v>0.003850321751932689</v>
       </c>
       <c r="E10">
-        <v>0.002892035727244718</v>
+        <v>0.002892035727244147</v>
       </c>
       <c r="F10">
-        <v>0.00180017696804288</v>
+        <v>0.001800176968042639</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1001,16 +1001,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-0.08855930578619919</v>
+        <v>-0.08855930578619926</v>
       </c>
       <c r="D11">
-        <v>0.08855930578619919</v>
+        <v>0.08855930578619926</v>
       </c>
       <c r="E11">
-        <v>0.03640409924084698</v>
+        <v>0.03640409924084705</v>
       </c>
       <c r="F11">
-        <v>0.02154883348324422</v>
+        <v>0.02154883348324425</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1021,16 +1021,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>-2.815932870791755</v>
+        <v>-2.815932870791756</v>
       </c>
       <c r="D12">
-        <v>2.815932870791755</v>
+        <v>2.815932870791756</v>
       </c>
       <c r="E12">
-        <v>1.020725272948935</v>
+        <v>1.020725272948936</v>
       </c>
       <c r="F12">
-        <v>0.5814521731122464</v>
+        <v>0.5814521731122468</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1041,16 +1041,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>-0.002573855078325948</v>
+        <v>-0.002573855078325415</v>
       </c>
       <c r="D13">
-        <v>0.006422544468437241</v>
+        <v>0.006422544468436708</v>
       </c>
       <c r="E13">
         <v>0.01437358584736862</v>
       </c>
       <c r="F13">
-        <v>0.00648580852877863</v>
+        <v>0.006485808528778799</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1061,16 +1061,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.02340195678676365</v>
+        <v>0.02340195678676351</v>
       </c>
       <c r="D14">
-        <v>0.03076648522852254</v>
+        <v>0.03076648522852268</v>
       </c>
       <c r="E14">
-        <v>0.08770841459937545</v>
+        <v>0.08770841459937551</v>
       </c>
       <c r="F14">
-        <v>0.05080339775459821</v>
+        <v>0.05080339775459818</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1081,16 +1081,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.006482960618782318</v>
+        <v>0.006482960618782452</v>
       </c>
       <c r="D15">
-        <v>0.01011183175530569</v>
+        <v>0.01011183175530556</v>
       </c>
       <c r="E15">
-        <v>0.02747444915587014</v>
+        <v>0.02747444915587011</v>
       </c>
       <c r="F15">
-        <v>0.01440744671645829</v>
+        <v>0.01440744671645831</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1141,16 +1141,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.0006166185828794246</v>
+        <v>0.0006166185828773596</v>
       </c>
       <c r="D18">
-        <v>0.0007166080183820034</v>
+        <v>0.00071660801838207</v>
       </c>
       <c r="E18">
-        <v>0.001187133935406001</v>
+        <v>0.001187133935406822</v>
       </c>
       <c r="F18">
-        <v>0.0007007239290256822</v>
+        <v>0.0007007239290253346</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1181,16 +1181,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>-0.0004747634140957801</v>
+        <v>-0.0004747634140948476</v>
       </c>
       <c r="D20">
-        <v>0.0004747634140957801</v>
+        <v>0.0004747634140948476</v>
       </c>
       <c r="E20">
-        <v>0.0004714291465044507</v>
+        <v>0.0004714291465017622</v>
       </c>
       <c r="F20">
-        <v>0.00029975163020911</v>
+        <v>0.000299751630207333</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1201,16 +1201,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>-0.007904609462934276</v>
+        <v>-0.007904609462936408</v>
       </c>
       <c r="D21">
-        <v>0.008658809162895919</v>
+        <v>0.008658809162893789</v>
       </c>
       <c r="E21">
-        <v>0.02632307717164703</v>
+        <v>0.02632307717164626</v>
       </c>
       <c r="F21">
-        <v>0.01720115207544853</v>
+        <v>0.01720115207544892</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1221,16 +1221,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0.01420121304938144</v>
+        <v>0.01420121304938093</v>
       </c>
       <c r="D22">
-        <v>0.01420121304938144</v>
+        <v>0.01420121304938093</v>
       </c>
       <c r="E22">
-        <v>0.04460445417862859</v>
+        <v>0.04460445417862877</v>
       </c>
       <c r="F22">
-        <v>0.02497140878808388</v>
+        <v>0.02497140878808398</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1241,16 +1241,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0.001991029998670135</v>
+        <v>0.001991029998669069</v>
       </c>
       <c r="D23">
-        <v>0.007178157321072099</v>
+        <v>0.007178157321073164</v>
       </c>
       <c r="E23">
-        <v>0.01743156917346907</v>
+        <v>0.01743156917346921</v>
       </c>
       <c r="F23">
-        <v>0.008563313485962126</v>
+        <v>0.008563313485961741</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1281,16 +1281,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0.0308242848600244</v>
+        <v>0.03082428486002433</v>
       </c>
       <c r="D25">
-        <v>0.03082668573317136</v>
+        <v>0.03082668573317182</v>
       </c>
       <c r="E25">
-        <v>0.09035461344124396</v>
+        <v>0.09035461344124469</v>
       </c>
       <c r="F25">
-        <v>0.05398128183675627</v>
+        <v>0.05398128183675658</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1327,10 +1327,10 @@
         <v>32.96731832621015</v>
       </c>
       <c r="E27">
-        <v>8.369688541264026</v>
+        <v>8.369688541264024</v>
       </c>
       <c r="F27">
-        <v>4.642701788514281</v>
+        <v>4.64270178851428</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1361,16 +1361,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0.009052284937671008</v>
+        <v>0.009052284937670773</v>
       </c>
       <c r="D29">
-        <v>0.009052284937671008</v>
+        <v>0.009052284937670773</v>
       </c>
       <c r="E29">
-        <v>0.005576373192363634</v>
+        <v>0.005576373192363824</v>
       </c>
       <c r="F29">
-        <v>0.003451785797823177</v>
+        <v>0.003451785797823292</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1381,16 +1381,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0.04401424952188093</v>
+        <v>0.04401424952188086</v>
       </c>
       <c r="D30">
-        <v>0.04877023622163548</v>
+        <v>0.04877023622163594</v>
       </c>
       <c r="E30">
-        <v>0.1013029273551774</v>
+        <v>0.1013029273551778</v>
       </c>
       <c r="F30">
-        <v>0.05428928125011974</v>
+        <v>0.05428928125011982</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1441,16 +1441,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0.5934336071287856</v>
+        <v>0.5934336071287862</v>
       </c>
       <c r="D33">
-        <v>0.5934336071287856</v>
+        <v>0.5934336071287862</v>
       </c>
       <c r="E33">
-        <v>0.4076688477103971</v>
+        <v>0.4076688477103964</v>
       </c>
       <c r="F33">
-        <v>0.2652173463073501</v>
+        <v>0.2652173463073496</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1461,16 +1461,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0.1612023378911321</v>
+        <v>0.1612023378911317</v>
       </c>
       <c r="D34">
-        <v>0.1612023378911321</v>
+        <v>0.1612023378911317</v>
       </c>
       <c r="E34">
-        <v>0.09119377635223511</v>
+        <v>0.09119377635223502</v>
       </c>
       <c r="F34">
-        <v>0.05800731408934179</v>
+        <v>0.05800731408934165</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1587,10 +1587,10 @@
         <v>1.627769438274326</v>
       </c>
       <c r="E40">
-        <v>1.108705927956764</v>
+        <v>1.108705927956762</v>
       </c>
       <c r="F40">
-        <v>0.6609945614158688</v>
+        <v>0.6609945614158679</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1641,16 +1641,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0.6285132836362032</v>
+        <v>0.6285132836362024</v>
       </c>
       <c r="D43">
-        <v>1.149483453559604</v>
+        <v>1.149483453559603</v>
       </c>
       <c r="E43">
         <v>1.460822192958464</v>
       </c>
       <c r="F43">
-        <v>0.6292626090042627</v>
+        <v>0.6292626090042626</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1681,10 +1681,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0.2640695781581947</v>
+        <v>0.2640695781581943</v>
       </c>
       <c r="D45">
-        <v>0.2640695781581947</v>
+        <v>0.2640695781581943</v>
       </c>
       <c r="E45">
         <v>0.1904472873003243</v>
@@ -1701,10 +1701,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0.2490782467245938</v>
+        <v>0.2490782467245936</v>
       </c>
       <c r="D46">
-        <v>0.2490782467245938</v>
+        <v>0.2490782467245936</v>
       </c>
       <c r="E46">
         <v>0.1676601840014026</v>
@@ -1721,13 +1721,13 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0.04796710816433052</v>
+        <v>0.04796710816432999</v>
       </c>
       <c r="D47">
-        <v>0.04796710816433052</v>
+        <v>0.04796710816432999</v>
       </c>
       <c r="E47">
-        <v>0.02383592417668967</v>
+        <v>0.02383592417668969</v>
       </c>
       <c r="F47">
         <v>0.01297747737630314</v>
@@ -1741,16 +1741,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>0.02209705992446833</v>
+        <v>0.0220970599244684</v>
       </c>
       <c r="D48">
-        <v>0.02209705992446833</v>
+        <v>0.0220970599244684</v>
       </c>
       <c r="E48">
-        <v>0.06149921625639448</v>
+        <v>0.06149921625639444</v>
       </c>
       <c r="F48">
-        <v>0.03675388935131524</v>
+        <v>0.03675388935131522</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1781,16 +1781,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0.01087949092578362</v>
+        <v>0.01087949092578379</v>
       </c>
       <c r="D50">
-        <v>0.01087949092578362</v>
+        <v>0.01087949092578379</v>
       </c>
       <c r="E50">
-        <v>0.03064077000933954</v>
+        <v>0.03064077000934006</v>
       </c>
       <c r="F50">
-        <v>0.01587933926139872</v>
+        <v>0.01587933926139899</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1801,16 +1801,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.022529792722016</v>
+        <v>3.022529792722015</v>
       </c>
       <c r="D51">
-        <v>3.068279225108041</v>
+        <v>3.06827922510804</v>
       </c>
       <c r="E51">
         <v>2.529984972272606</v>
       </c>
       <c r="F51">
-        <v>1.337606551780621</v>
+        <v>1.33760655178062</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1821,16 +1821,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0.1433427575696095</v>
+        <v>0.1433427575696094</v>
       </c>
       <c r="D52">
-        <v>0.1433427575696095</v>
+        <v>0.1433427575696094</v>
       </c>
       <c r="E52">
-        <v>0.0639158802539524</v>
+        <v>0.06391588025395238</v>
       </c>
       <c r="F52">
-        <v>0.03778827154717518</v>
+        <v>0.0377882715471751</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1861,13 +1861,13 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0.7301523896274501</v>
+        <v>0.7301523896274495</v>
       </c>
       <c r="D54">
-        <v>0.7301523896274501</v>
+        <v>0.7301523896274495</v>
       </c>
       <c r="E54">
-        <v>0.6112016087393793</v>
+        <v>0.6112016087393795</v>
       </c>
       <c r="F54">
         <v>0.3332582051523393</v>
@@ -1901,16 +1901,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>-0.3961142863167142</v>
+        <v>-0.3961142863167129</v>
       </c>
       <c r="D56">
-        <v>0.3961142863167142</v>
+        <v>0.3961142863167129</v>
       </c>
       <c r="E56">
-        <v>0.3201188552856579</v>
+        <v>0.3201188552856578</v>
       </c>
       <c r="F56">
-        <v>0.1684611992536535</v>
+        <v>0.1684611992536531</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1981,16 +1981,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>-0.03829921499256499</v>
+        <v>-0.03829921499256482</v>
       </c>
       <c r="D60">
-        <v>0.03829921499256499</v>
+        <v>0.03829921499256482</v>
       </c>
       <c r="E60">
-        <v>0.1211127519729741</v>
+        <v>0.1211127519729736</v>
       </c>
       <c r="F60">
-        <v>0.07390358153959152</v>
+        <v>0.0739035815395912</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2047,10 +2047,10 @@
         <v>0.2728206416568773</v>
       </c>
       <c r="E63">
-        <v>0.1181953364082013</v>
+        <v>0.1181953364082014</v>
       </c>
       <c r="F63">
-        <v>0.06942925532110342</v>
+        <v>0.06942925532110335</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2121,16 +2121,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0.01603361674770369</v>
+        <v>0.01603361674770383</v>
       </c>
       <c r="D67">
-        <v>0.01653489660654828</v>
+        <v>0.01653489660654841</v>
       </c>
       <c r="E67">
-        <v>0.00919951079890019</v>
+        <v>0.009199510798900185</v>
       </c>
       <c r="F67">
-        <v>0.004460475489918249</v>
+        <v>0.004460475489918275</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2161,16 +2161,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>-0.01075660947811017</v>
+        <v>-0.01075660947811003</v>
       </c>
       <c r="D69">
-        <v>0.01075660947811017</v>
+        <v>0.01075660947811003</v>
       </c>
       <c r="E69">
-        <v>0.03027633813049627</v>
+        <v>0.03027633813049629</v>
       </c>
       <c r="F69">
-        <v>0.01721048673296621</v>
+        <v>0.01721048673296622</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2421,16 +2421,16 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0.006680698991711376</v>
+        <v>0.006680698991710044</v>
       </c>
       <c r="D82">
-        <v>0.006680698991711376</v>
+        <v>0.006680698991710044</v>
       </c>
       <c r="E82">
-        <v>0.009154590014095208</v>
+        <v>0.009154590014095606</v>
       </c>
       <c r="F82">
-        <v>0.005263933793640989</v>
+        <v>0.005263933793641356</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2621,16 +2621,16 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0.02585070116126407</v>
+        <v>0.02585070116126353</v>
       </c>
       <c r="D92">
-        <v>0.02585070116126407</v>
+        <v>0.02585070116126353</v>
       </c>
       <c r="E92">
-        <v>0.03481496163660383</v>
+        <v>0.03481496163660407</v>
       </c>
       <c r="F92">
-        <v>0.02065946698200696</v>
+        <v>0.02065946698200715</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2641,16 +2641,16 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0.02253864906438209</v>
+        <v>0.02253864906438182</v>
       </c>
       <c r="D93">
-        <v>0.02253864906438209</v>
+        <v>0.02253864906438182</v>
       </c>
       <c r="E93">
-        <v>0.01174021954619635</v>
+        <v>0.01174021954619631</v>
       </c>
       <c r="F93">
-        <v>0.006800153540469509</v>
+        <v>0.006800153540469474</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2661,16 +2661,16 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0.6081825449852332</v>
+        <v>0.6081825449852335</v>
       </c>
       <c r="D94">
-        <v>0.6081825449852332</v>
+        <v>0.6081825449852335</v>
       </c>
       <c r="E94">
-        <v>0.3814175200066451</v>
+        <v>0.3814175200066461</v>
       </c>
       <c r="F94">
-        <v>0.217037181640131</v>
+        <v>0.2170371816401314</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2681,16 +2681,16 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>-0.1907205914094843</v>
+        <v>-0.1907205914094841</v>
       </c>
       <c r="D95">
         <v>0.2430913622292179</v>
       </c>
       <c r="E95">
-        <v>0.2343174208688041</v>
+        <v>0.2343174208688042</v>
       </c>
       <c r="F95">
-        <v>0.1081034031166682</v>
+        <v>0.1081034031166681</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2827,10 +2827,10 @@
         <v>1.17145504654812</v>
       </c>
       <c r="E102">
-        <v>0.238184275981577</v>
+        <v>0.23818427598158</v>
       </c>
       <c r="F102">
-        <v>0.1391201298293443</v>
+        <v>0.1391201298293468</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2841,16 +2841,16 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>-0.1926407991770402</v>
+        <v>-0.1926407991770401</v>
       </c>
       <c r="D103">
-        <v>0.1926407991770402</v>
+        <v>0.1926407991770401</v>
       </c>
       <c r="E103">
-        <v>0.06198476886275729</v>
+        <v>0.06198476886275732</v>
       </c>
       <c r="F103">
-        <v>0.03384194452347034</v>
+        <v>0.03384194452347038</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2861,16 +2861,16 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>-0.3773220782230068</v>
+        <v>-0.3773220782230071</v>
       </c>
       <c r="D104">
-        <v>0.3773220782230068</v>
+        <v>0.3773220782230071</v>
       </c>
       <c r="E104">
-        <v>0.3172284873511595</v>
+        <v>0.3172284873511602</v>
       </c>
       <c r="F104">
-        <v>0.2109065732234107</v>
+        <v>0.2109065732234112</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2881,16 +2881,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>-0.04647279428297648</v>
+        <v>-0.04647279428297661</v>
       </c>
       <c r="D105">
-        <v>0.04647279428297648</v>
+        <v>0.04647279428297661</v>
       </c>
       <c r="E105">
-        <v>0.02162983779505236</v>
+        <v>0.02162983779505247</v>
       </c>
       <c r="F105">
-        <v>0.01315439042967127</v>
+        <v>0.01315439042967134</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2921,16 +2921,16 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0.01395329472146884</v>
+        <v>0.01395329472146938</v>
       </c>
       <c r="D107">
-        <v>0.01812342527853041</v>
+        <v>0.01812342527853095</v>
       </c>
       <c r="E107">
-        <v>0.01222886063181699</v>
+        <v>0.01222886063181717</v>
       </c>
       <c r="F107">
-        <v>0.0005091266746939355</v>
+        <v>0.0005091266746938524</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3361,16 +3361,16 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>0.1759087396337857</v>
+        <v>0.1759087396337846</v>
       </c>
       <c r="D129">
-        <v>0.1759087396337857</v>
+        <v>0.1759087396337846</v>
       </c>
       <c r="E129">
-        <v>0.01664172155400698</v>
+        <v>0.01664172155400795</v>
       </c>
       <c r="F129">
-        <v>0.009794133816467652</v>
+        <v>0.009794133816468124</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3441,16 +3441,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>-0.1677773019689591</v>
+        <v>-0.1677773019689581</v>
       </c>
       <c r="D133">
-        <v>0.1677773019689591</v>
+        <v>0.1677773019689581</v>
       </c>
       <c r="E133">
-        <v>0.1338749288304392</v>
+        <v>0.1338749288304388</v>
       </c>
       <c r="F133">
-        <v>0.07733539095717874</v>
+        <v>0.07733539095717835</v>
       </c>
     </row>
     <row r="134" spans="1:6">
